--- a/public/Contents/xlsx/Voiture.xlsx
+++ b/public/Contents/xlsx/Voiture.xlsx
@@ -11,17 +11,61 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+  <si>
+    <t>Options</t>
+  </si>
+  <si>
+    <t>Voiture usagée</t>
+  </si>
+  <si>
+    <t>Voiture neuve</t>
+  </si>
+  <si>
+    <t>Transport en commun</t>
+  </si>
+  <si>
+    <t>Paiement immédiat</t>
+  </si>
+  <si>
+    <t>Paiement de mensualités</t>
+  </si>
+  <si>
+    <t>Assurances</t>
+  </si>
+  <si>
+    <t>Essence</t>
+  </si>
+  <si>
+    <t>Abonnement de transport en commun</t>
+  </si>
+  <si>
+    <t>Autobus voyageur</t>
+  </si>
+  <si>
+    <t>Location de voiture</t>
+  </si>
+  <si>
+    <t>Perte de salaire</t>
+  </si>
+  <si>
+    <t>TOTAL</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="1">
+  <fonts count="3">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <b/>
+    </font>
+    <font/>
   </fonts>
   <fills count="2">
     <fill>
@@ -31,20 +75,184 @@
       <patternFill patternType="lightGray"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="13">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="15">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="3" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="4" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="5" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="6" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="7" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="8" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="9" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="10" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="11" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="12" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="4" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -64,7 +272,158 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
-  <sheetData/>
+  <sheetData>
+    <row r="2">
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="3"/>
+    </row>
+    <row r="3">
+      <c r="B3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="7"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="10"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="10"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="10"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="10"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="10"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="10"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="12"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="13"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="14" t="str">
+        <f t="shared" ref="B12:D12" si="1">sum(B4:B11)</f>
+        <v>0</v>
+      </c>
+      <c r="C12" s="14" t="str">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D12" s="14" t="str">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="9"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="9"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="9"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="9"/>
+      <c r="B16" s="9"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="9"/>
+      <c r="B17" s="9"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="9"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="9"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="9"/>
+      <c r="B20" s="9"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B2:D2"/>
+  </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>